--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt1-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt1-Fzd10.xlsx
@@ -534,16 +534,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H2">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I2">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J2">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,22 +558,22 @@
         <v>0.119697</v>
       </c>
       <c r="O2">
-        <v>0.4436993666839036</v>
+        <v>0.4086672402490986</v>
       </c>
       <c r="P2">
-        <v>0.5447061607492286</v>
+        <v>0.5089958879585649</v>
       </c>
       <c r="Q2">
-        <v>0.0078700179015</v>
+        <v>0.0011664273155</v>
       </c>
       <c r="R2">
-        <v>0.047220107409</v>
+        <v>0.006998563893</v>
       </c>
       <c r="S2">
-        <v>0.3739738126963201</v>
+        <v>0.1809891219588137</v>
       </c>
       <c r="T2">
-        <v>0.4256622518636923</v>
+        <v>0.1763092979913703</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H3">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I3">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J3">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.0500245</v>
+        <v>0.057733</v>
       </c>
       <c r="N3">
-        <v>0.100049</v>
+        <v>0.115466</v>
       </c>
       <c r="O3">
-        <v>0.5563006333160965</v>
+        <v>0.5913327597509014</v>
       </c>
       <c r="P3">
-        <v>0.4552938392507713</v>
+        <v>0.4910041120414351</v>
       </c>
       <c r="Q3">
-        <v>0.00986725758825</v>
+        <v>0.0016877953885</v>
       </c>
       <c r="R3">
-        <v>0.039469030353</v>
+        <v>0.006751181554</v>
       </c>
       <c r="S3">
-        <v>0.4688802474555017</v>
+        <v>0.2618873901112357</v>
       </c>
       <c r="T3">
-        <v>0.3557907268913219</v>
+        <v>0.1700771899201447</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.110328</v>
       </c>
       <c r="I4">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J4">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,10 +682,10 @@
         <v>0.119697</v>
       </c>
       <c r="O4">
-        <v>0.4436993666839036</v>
+        <v>0.4086672402490986</v>
       </c>
       <c r="P4">
-        <v>0.5447061607492286</v>
+        <v>0.5089958879585649</v>
       </c>
       <c r="Q4">
         <v>0.001467325624</v>
@@ -694,10 +694,10 @@
         <v>0.013205930616</v>
       </c>
       <c r="S4">
-        <v>0.0697255539875835</v>
+        <v>0.2276781182902849</v>
       </c>
       <c r="T4">
-        <v>0.1190439088855364</v>
+        <v>0.3326865899671946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.110328</v>
       </c>
       <c r="I5">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J5">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0500245</v>
+        <v>0.057733</v>
       </c>
       <c r="N5">
-        <v>0.100049</v>
+        <v>0.115466</v>
       </c>
       <c r="O5">
-        <v>0.5563006333160965</v>
+        <v>0.5913327597509014</v>
       </c>
       <c r="P5">
-        <v>0.4552938392507713</v>
+        <v>0.4910041120414351</v>
       </c>
       <c r="Q5">
-        <v>0.001839701012</v>
+        <v>0.002123188808</v>
       </c>
       <c r="R5">
-        <v>0.011038206072</v>
+        <v>0.012739132848</v>
       </c>
       <c r="S5">
-        <v>0.08742038586059477</v>
+        <v>0.3294453696396656</v>
       </c>
       <c r="T5">
-        <v>0.09950311235944952</v>
+        <v>0.3209269221212903</v>
       </c>
     </row>
   </sheetData>
